--- a/FunctionList-KiwonBack.xlsx
+++ b/FunctionList-KiwonBack.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68640A4-987D-4B43-8041-398D1DA73666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEA92F-AF61-48C9-97B4-4DFAFC3DDF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32715" yWindow="2940" windowWidth="19080" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,18 +574,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="A6:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="85.25" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,13 +602,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -651,7 +651,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -703,7 +703,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>9</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
@@ -742,7 +742,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
